--- a/public/placeholdersheet.xlsx
+++ b/public/placeholdersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0893e936dbe216fc/Documents/CodeProjects/RidesProjectVA/ride-organizer-va/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_5413CE126337C6C81B22ABD9951E03F5312588FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE0B517-301C-47CC-BDC8-403F3C4D0E29}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_6431EACCB51D5CEC531FE149149C838CD3A222C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4871757-8BFB-47C1-B307-68D5637CCCC1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passenger Form Responses" sheetId="1" r:id="rId1"/>
@@ -20,70 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Georgia"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Responder updated this value.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Georgia"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Responder updated this value.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Georgia"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Responder updated this value.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Georgia"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Responder updated this value.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Timestamp</t>
   </si>
@@ -115,106 +53,196 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>agee4@uci.edu</t>
-  </si>
-  <si>
-    <t>Bob Billigan</t>
-  </si>
-  <si>
-    <t>555 555 5555</t>
-  </si>
-  <si>
     <t>Sunday Third Service 11:30am</t>
   </si>
   <si>
-    <t>112 Stanford Ct</t>
-  </si>
-  <si>
     <t>UCI</t>
   </si>
   <si>
+    <t>Freshman</t>
+  </si>
+  <si>
     <t>Sophomore</t>
   </si>
   <si>
-    <t>I do not exist ):</t>
-  </si>
-  <si>
-    <t>Tombert Johndoe</t>
-  </si>
-  <si>
-    <t>123 456 7890</t>
-  </si>
-  <si>
     <t>Friday Bible Study 7:00pm, Sunday First Service 8:00am</t>
   </si>
   <si>
-    <t>287 Berkeley Ave</t>
-  </si>
-  <si>
     <t>Junior</t>
   </si>
   <si>
-    <t>Sunday Second Service 9:30am, Sunday Third Service 11:30am</t>
-  </si>
-  <si>
     <t>Planning on taking membership class</t>
   </si>
   <si>
-    <t>Gaius Algersyn</t>
-  </si>
-  <si>
-    <t>955 758 3619</t>
+    <t>pass1@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 1</t>
+  </si>
+  <si>
+    <t>111 555 1234</t>
+  </si>
+  <si>
+    <t>Sunday First Service 8:00am</t>
+  </si>
+  <si>
+    <t>455 Cornell</t>
+  </si>
+  <si>
+    <t>pass2@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 2</t>
+  </si>
+  <si>
+    <t>112 555 1234</t>
   </si>
   <si>
     <t>Friday Bible Study 7:00pm, Sunday Second Service 9:30am</t>
   </si>
   <si>
-    <t>53 Dartmouth</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>Aaron Gee</t>
-  </si>
-  <si>
-    <t>916 385 7559</t>
-  </si>
-  <si>
-    <t>292 Tustin Field Dr</t>
-  </si>
-  <si>
-    <t>Out of School</t>
+    <t>267 Berkeley Ave</t>
+  </si>
+  <si>
+    <t>pass3@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 3</t>
+  </si>
+  <si>
+    <t>113 555 1234</t>
+  </si>
+  <si>
+    <t>Sunday Second Service 9:30am</t>
+  </si>
+  <si>
+    <t>1642 Stanford Ct</t>
+  </si>
+  <si>
+    <t>pass4@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 4</t>
+  </si>
+  <si>
+    <t>114 555 1234</t>
+  </si>
+  <si>
+    <t>207 Cornell</t>
+  </si>
+  <si>
+    <t>pass5@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 5</t>
+  </si>
+  <si>
+    <t>115 555 1234</t>
+  </si>
+  <si>
+    <t>Friday Bible Study 7:00pm, Sunday Third Service 11:30am</t>
+  </si>
+  <si>
+    <t>Middle Earth</t>
+  </si>
+  <si>
+    <t>pass6@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 6</t>
+  </si>
+  <si>
+    <t>116 555 1234</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>pass7@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 7</t>
+  </si>
+  <si>
+    <t>117 555 1234</t>
+  </si>
+  <si>
+    <t>6501 E De Leon St</t>
+  </si>
+  <si>
+    <t>CSULB</t>
   </si>
   <si>
     <t>Seats</t>
   </si>
   <si>
-    <t>Trebor Tenfingers</t>
-  </si>
-  <si>
-    <t>9358 Lufkin Way</t>
-  </si>
-  <si>
-    <t>I got a pet goose.</t>
-  </si>
-  <si>
-    <t>070 925 2002</t>
+    <t>driv1@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 1</t>
+  </si>
+  <si>
+    <t>111 555 4321</t>
+  </si>
+  <si>
+    <t>283 Berkeley Ave</t>
+  </si>
+  <si>
+    <t>Driver 2</t>
+  </si>
+  <si>
+    <t>112 555 4321</t>
+  </si>
+  <si>
+    <t>6502 E De Leon St</t>
+  </si>
+  <si>
+    <t>135 Cornell</t>
+  </si>
+  <si>
+    <t>driv2@ryd.org</t>
+  </si>
+  <si>
+    <t>1454 Stanford Ct</t>
+  </si>
+  <si>
+    <t>Can't drive back</t>
+  </si>
+  <si>
+    <t>driv3@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 3</t>
+  </si>
+  <si>
+    <t>113 555 4321</t>
+  </si>
+  <si>
+    <t>driv4@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 4</t>
+  </si>
+  <si>
+    <t>114 555 4321</t>
+  </si>
+  <si>
+    <t>Passenger 8</t>
+  </si>
+  <si>
+    <t>118 555 1234</t>
   </si>
   <si>
     <t>Friday Bible Study 7:00pm</t>
   </si>
   <si>
-    <t>no.</t>
+    <t>22000 Arroyo Dr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -237,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -412,54 +440,87 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -470,37 +531,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,8 +653,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:J5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Passengers" displayName="Passengers" ref="A1:J9">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email Address"/>
@@ -599,7 +676,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Form_Responses2" displayName="Form_Responses2" ref="A1:I2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Drivers" displayName="Drivers" ref="A1:I5">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Email Address"/>
@@ -812,15 +889,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -869,130 +946,238 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45722.759284756947</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="8">
+        <v>45728</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>45722.759111296298</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="A3" s="9">
+        <v>45729</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>45722.760744780091</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8">
+        <v>45730</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>45727.747038946763</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="9">
+        <v>45731</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>45732</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>45734</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45735</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1002,11 +1187,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1044,38 +1229,120 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>45727.940887303237</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="8">
+        <v>45728</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>45729</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>45730</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="H4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>45731</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/placeholdersheet.xlsx
+++ b/public/placeholdersheet.xlsx
@@ -6,13 +6,15 @@
     <sheet state="visible" name="Passenger Form Responses" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Driver Form Responses" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Passenger Form Responses'!$A$1:$J$21</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>Timestamp</t>
   </si>
@@ -44,7 +46,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>pass1@ryd.org</t>
+    <t>pass01@ryd.org</t>
   </si>
   <si>
     <t>Passenger 1</t>
@@ -68,7 +70,7 @@
     <t>Planning on taking membership class</t>
   </si>
   <si>
-    <t>pass2@ryd.org</t>
+    <t>pass02@ryd.org</t>
   </si>
   <si>
     <t>Passenger 2</t>
@@ -86,7 +88,7 @@
     <t>Junior</t>
   </si>
   <si>
-    <t>pass3@ryd.org</t>
+    <t>pass03@ryd.org</t>
   </si>
   <si>
     <t>Passenger 3</t>
@@ -104,7 +106,7 @@
     <t>Sunday Third Service 11:30am</t>
   </si>
   <si>
-    <t>pass4@ryd.org</t>
+    <t>pass04@ryd.org</t>
   </si>
   <si>
     <t>Passenger 4</t>
@@ -116,7 +118,10 @@
     <t>207 Cornell</t>
   </si>
   <si>
-    <t>pass5@ryd.org</t>
+    <t>Have to go back immediately after service</t>
+  </si>
+  <si>
+    <t>pass05@ryd.org</t>
   </si>
   <si>
     <t>Passenger 5</t>
@@ -134,7 +139,7 @@
     <t>Freshman</t>
   </si>
   <si>
-    <t>pass6@ryd.org</t>
+    <t>pass06@ryd.org</t>
   </si>
   <si>
     <t>Passenger 6</t>
@@ -149,7 +154,10 @@
     <t>Mesa</t>
   </si>
   <si>
-    <t>pass7@ryd.org</t>
+    <t>Sunday Second Service 9:30am, Sunday Third Service 11:30am</t>
+  </si>
+  <si>
+    <t>pass07@ryd.org</t>
   </si>
   <si>
     <t>Passenger 7</t>
@@ -158,13 +166,13 @@
     <t>117 555 1234</t>
   </si>
   <si>
-    <t>6501 E De Leon St</t>
-  </si>
-  <si>
-    <t>CSULB</t>
-  </si>
-  <si>
-    <t>pass8@ryd.org</t>
+    <t>232 W Palm Ave</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>pass08@ryd.org</t>
   </si>
   <si>
     <t>Passenger 8</t>
@@ -179,6 +187,138 @@
     <t>22000 Arroyo Dr</t>
   </si>
   <si>
+    <t>pass09@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 9</t>
+  </si>
+  <si>
+    <t>119 555 1234</t>
+  </si>
+  <si>
+    <t>287 Berkeley Ave</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>pass10@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 10</t>
+  </si>
+  <si>
+    <t>120 555 1234</t>
+  </si>
+  <si>
+    <t>326 E Walnut Ave</t>
+  </si>
+  <si>
+    <t>pass11@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 11</t>
+  </si>
+  <si>
+    <t>121 555 1234</t>
+  </si>
+  <si>
+    <t>pass12@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 12</t>
+  </si>
+  <si>
+    <t>122 555 1234</t>
+  </si>
+  <si>
+    <t>pass13@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 13</t>
+  </si>
+  <si>
+    <t>123 555 1234</t>
+  </si>
+  <si>
+    <t>13800 Biola Ave</t>
+  </si>
+  <si>
+    <t>Biola</t>
+  </si>
+  <si>
+    <t>pass14@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 14</t>
+  </si>
+  <si>
+    <t>124 555 1234</t>
+  </si>
+  <si>
+    <t>pass15@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 15</t>
+  </si>
+  <si>
+    <t>125 555 1234</t>
+  </si>
+  <si>
+    <t>567 N Shaffer St</t>
+  </si>
+  <si>
+    <t>pass16@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 16</t>
+  </si>
+  <si>
+    <t>126 555 1234</t>
+  </si>
+  <si>
+    <t>pass17@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 17</t>
+  </si>
+  <si>
+    <t>127 555 1234</t>
+  </si>
+  <si>
+    <t>1260 Taft St</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>pass18@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 18</t>
+  </si>
+  <si>
+    <t>128 555 1234</t>
+  </si>
+  <si>
+    <t>pass19@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 19</t>
+  </si>
+  <si>
+    <t>129 555 1234</t>
+  </si>
+  <si>
+    <t>pass20@ryd.org</t>
+  </si>
+  <si>
+    <t>Passenger 20</t>
+  </si>
+  <si>
+    <t>130 555 1234</t>
+  </si>
+  <si>
     <t>Seats</t>
   </si>
   <si>
@@ -230,14 +370,62 @@
     <t>114 555 4321</t>
   </si>
   <si>
-    <t>6502 E De Leon St</t>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>driv5@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 5</t>
+  </si>
+  <si>
+    <t>115 555 4321</t>
+  </si>
+  <si>
+    <t>21000 Arroyo Dr</t>
+  </si>
+  <si>
+    <t>driv6@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 6</t>
+  </si>
+  <si>
+    <t>116 555 4321</t>
+  </si>
+  <si>
+    <t>driv7@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 7</t>
+  </si>
+  <si>
+    <t>117 555 4321</t>
+  </si>
+  <si>
+    <t>3700 Parkview Ln</t>
+  </si>
+  <si>
+    <t>Can't drive every other Friday</t>
+  </si>
+  <si>
+    <t>driv8@ryd.org</t>
+  </si>
+  <si>
+    <t>Driver 8</t>
+  </si>
+  <si>
+    <t>118 555 4321</t>
+  </si>
+  <si>
+    <t>1262 Taft St</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -250,20 +438,66 @@
       <name val="Georgia"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Georgia"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B3F86"/>
+        <bgColor rgb="FF5B3F86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border/>
     <border>
       <left style="thin">
@@ -395,24 +629,13 @@
       <left style="thin">
         <color rgb="FF442F65"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -442,6 +665,16 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -489,10 +722,110 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -508,47 +841,37 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,12 +917,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="2">
-    <tableStyle count="3" pivot="0" name="Passenger Form Responses-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
+  <tableStyles count="1">
     <tableStyle count="3" pivot="0" name="Driver Form Responses-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -618,25 +936,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J9" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="10">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Email Address" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Phone Number" id="4"/>
-    <tableColumn name="Rides" id="5"/>
-    <tableColumn name="Address" id="6"/>
-    <tableColumn name="College" id="7"/>
-    <tableColumn name="Year" id="8"/>
-    <tableColumn name="Backup Rides" id="9"/>
-    <tableColumn name="Notes" id="10"/>
-  </tableColumns>
-  <tableStyleInfo name="Passenger Form Responses-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I5" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I9" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="9">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -902,63 +1202,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" hidden="1" customHeight="1">
       <c r="A2" s="4">
         <v>45728.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>45729.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
@@ -967,172 +1267,1837 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>45731.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" hidden="1" customHeight="1">
+      <c r="A6" s="4">
+        <v>45732.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A7" s="9">
+        <v>45733.0</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="17">
+        <v>45734.0</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" ht="15.75" hidden="1" customHeight="1">
+      <c r="A9" s="9">
+        <v>45735.0</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" hidden="1" customHeight="1">
+      <c r="A10" s="17">
+        <v>45736.0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" ht="15.75" hidden="1" customHeight="1">
+      <c r="A11" s="9">
+        <v>45737.0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="15.75" hidden="1" customHeight="1">
+      <c r="A12" s="17">
+        <v>45738.0</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" hidden="1" customHeight="1">
+      <c r="A13" s="9">
+        <v>45739.0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" hidden="1" customHeight="1">
+      <c r="A14" s="17">
+        <v>45740.0</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9">
+        <v>45741.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="17">
+        <v>45742.0</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A17" s="9">
+        <v>45743.0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" ht="15.75" hidden="1" customHeight="1">
+      <c r="A18" s="17">
+        <v>45744.0</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="9">
+        <v>45745.0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" ht="15.75" hidden="1" customHeight="1">
+      <c r="A20" s="17">
+        <v>45746.0</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="26">
+        <v>45747.0</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <autoFilter ref="$A$1:$J$21">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Friday Bible Study 7:00pm, Sunday Second Service 9:30am"/>
+        <filter val="Sunday Second Service 9:30am"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G21">
+      <formula1>"UCI,CSULB,Biola,Chapman,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H21">
+      <formula1>"Sophomore,Junior,Freshman,Senior,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="9" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="38">
+        <v>45728.0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="38">
+        <v>45729.0</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="38">
+        <v>45730.0</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="38">
+        <v>45731.0</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="38">
         <v>45732.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="38">
         <v>45733.0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9"/>
+      <c r="B7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="38">
         <v>45734.0</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="49">
         <v>45735.0</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="17"/>
+      <c r="B9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="51">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -2125,1168 +4090,10 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="9" width="18.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
-        <v>45728.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
-        <v>45729.0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>45730.0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18">
-        <v>45731.0</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/public/placeholdersheet.xlsx
+++ b/public/placeholdersheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
   <si>
     <t>Timestamp</t>
   </si>
@@ -202,6 +202,9 @@
     <t>Senior</t>
   </si>
   <si>
+    <t>Thank you!! :DD</t>
+  </si>
+  <si>
     <t>pass10@ryd.org</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>126 555 1234</t>
   </si>
   <si>
+    <t>Don't need a ride on the 17th</t>
+  </si>
+  <si>
     <t>pass17@ryd.org</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
   </si>
   <si>
     <t>21000 Arroyo Dr</t>
+  </si>
+  <si>
+    <t>I have servant team meetings after third</t>
   </si>
   <si>
     <t>driv6@ryd.org</t>
@@ -722,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -789,14 +798,17 @@
     <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -845,34 +857,38 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,11 +933,19 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="3">
     <tableStyle count="3" pivot="0" name="Driver Form Responses-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Driver Form Responses-style 2">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Driver Form Responses-style 3">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -949,6 +973,25 @@
     <tableColumn name="Notes" id="9"/>
   </tableColumns>
   <tableStyleInfo name="Driver Form Responses-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B11:B15" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Driver Form Responses-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="G11:H13" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Driver Form Responses-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1202,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" hidden="1" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>45728.0</v>
       </c>
@@ -1322,7 +1365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>45732.0</v>
       </c>
@@ -1350,7 +1393,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="9">
         <v>45733.0</v>
       </c>
@@ -1406,9 +1449,11 @@
         <v>16</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="9">
         <v>45735.0</v>
       </c>
@@ -1434,11 +1479,9 @@
         <v>23</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="22"/>
     </row>
-    <row r="10" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17">
         <v>45736.0</v>
       </c>
@@ -1466,26 +1509,28 @@
       <c r="I10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="9">
         <v>45737.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>51</v>
@@ -1496,18 +1541,18 @@
       <c r="I11" s="11"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="17">
         <v>45738.0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>55</v>
@@ -1522,20 +1567,20 @@
         <v>40</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="25"/>
     </row>
-    <row r="13" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="9">
         <v>45739.0</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>38</v>
@@ -1552,59 +1597,59 @@
       <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="17">
         <v>45740.0</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="9">
         <v>45741.0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>23</v>
@@ -1617,19 +1662,19 @@
         <v>45742.0</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>51</v>
@@ -1638,22 +1683,22 @@
         <v>40</v>
       </c>
       <c r="I16" s="19"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="25"/>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="9">
         <v>45743.0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -1668,50 +1713,52 @@
       <c r="I17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="17">
         <v>45744.0</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="25"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="9">
         <v>45745.0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1726,18 +1773,18 @@
       <c r="I19" s="11"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="17">
         <v>45746.0</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>44</v>
@@ -1752,49 +1799,49 @@
         <v>40</v>
       </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="22"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="27">
         <v>45747.0</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="C21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -2788,14 +2835,7 @@
     <row r="1012" ht="15.75" customHeight="1"/>
     <row r="1013" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$J$21">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Friday Bible Study 7:00pm, Sunday Second Service 9:30am"/>
-        <filter val="Sunday Second Service 9:30am"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$J$21"/>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G21">
       <formula1>"UCI,CSULB,Biola,Chapman,Other"</formula1>
@@ -2851,212 +2891,214 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="38">
+      <c r="A2" s="39">
         <v>45728.0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="39">
+      <c r="C2" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="40">
         <v>4.0</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="41"/>
+      <c r="H2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="38">
+      <c r="A3" s="39">
         <v>45729.0</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="39">
+      <c r="C3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="40">
         <v>4.0</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>109</v>
+      <c r="H3" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="38">
+      <c r="A4" s="39">
         <v>45730.0</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>113</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="E4" s="45">
         <v>2.0</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="41"/>
+      <c r="H4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="39">
         <v>45731.0</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="39">
+      <c r="C5" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="40">
         <v>4.0</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38">
+      <c r="A6" s="39">
         <v>45732.0</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>121</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="E6" s="45">
         <v>6.0</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="41"/>
+      <c r="H6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="38">
+      <c r="A7" s="39">
         <v>45733.0</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>125</v>
+      <c r="B7" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="45">
         <v>3.0</v>
       </c>
       <c r="F7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="38">
+      <c r="A8" s="39">
         <v>45734.0</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="39">
+        <v>129</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="40">
         <v>4.0</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -3066,45 +3108,63 @@
         <v>55</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>45735.0</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="51">
+      <c r="B9" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="50">
         <v>4.0</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="52"/>
+      <c r="H9" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="52"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="52"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="47"/>
+      <c r="H15" s="47"/>
+    </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -4099,8 +4159,10 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>